--- a/data/income_statement/2digits/size/49_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/49_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>49-Land transport and transport via pipelines</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>49-Land transport and transport via pipelines</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,404 +841,459 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>27895650.75756</v>
+        <v>27646716.72583</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>30158406.48691</v>
+        <v>29940609.22878</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>42381666.1473</v>
+        <v>42067655.52618</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>56015565.98782</v>
+        <v>55576711.54409</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>53154734.99437</v>
+        <v>52714862.21793</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>60516220.17923</v>
+        <v>60411627.95642</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>63840653.53066</v>
+        <v>64440519.83896</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>62706090.81064</v>
+        <v>62204238.64303</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>78130566.98733</v>
+        <v>77119995.03524999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>91297491.51346</v>
+        <v>90870394.88016</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>110439995.20577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>109557479.95841</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>117743936.178</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>25237854.88127</v>
+        <v>25097451.98649</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>25745727.65088</v>
+        <v>25627956.04447</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>37326857.77512001</v>
+        <v>37086296.13364</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>50164860.19246</v>
+        <v>49898352.82555</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>47242995.4096</v>
+        <v>46994177.1295</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>54738188.38397</v>
+        <v>54787697.32776999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>57331159.16359001</v>
+        <v>58038471.55362</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>55139050.28873</v>
+        <v>54805666.89331999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>66590363.73547</v>
+        <v>65874057.57629</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>81403046.771</v>
+        <v>81124465.3311</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>98908336.82944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>98395627.45139001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>103749916.986</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1799661.70755</v>
+        <v>1693581.46833</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3355330.42126</v>
+        <v>3260605.67147</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3754830.88195</v>
+        <v>3695667.16949</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4590582.34066</v>
+        <v>4424799.252679999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4549690.46557</v>
+        <v>4377004.40505</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5045827.63917</v>
+        <v>4899067.98739</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5493391.96696</v>
+        <v>5408074.858379999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6619696.877649999</v>
+        <v>6475048.768829999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>10132695.85404</v>
+        <v>9945642.65202</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8490980.28644</v>
+        <v>8356671.29723</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>9563299.979460001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9257365.24298</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>12077402.877</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>858134.1687399999</v>
+        <v>855683.27101</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1057348.41477</v>
+        <v>1052047.51284</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1299977.49023</v>
+        <v>1285692.22305</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1260123.4547</v>
+        <v>1253559.46586</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1362049.1192</v>
+        <v>1343680.68338</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>732204.1560900001</v>
+        <v>724862.6412599999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1016102.40011</v>
+        <v>993973.4269600001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>947343.64426</v>
+        <v>923522.98088</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1407507.39782</v>
+        <v>1300294.80694</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1403464.45602</v>
+        <v>1389258.25183</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1968358.39687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1904487.26404</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1916616.315</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>82556.26688000001</v>
+        <v>82139.21788999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>59827.93858000001</v>
+        <v>59690.0973</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>109397.43881</v>
+        <v>108770.48772</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>114247.19932</v>
+        <v>113528.34577</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>120233.27807</v>
+        <v>119621.74717</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>226432.25576</v>
+        <v>223992.9494</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>298722.24184</v>
+        <v>299691.24246</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>300591.66109</v>
+        <v>295744.1293499999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1639346.66349</v>
+        <v>1634845.99608</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>469498.4068199999</v>
+        <v>462473.66734</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>417526.19231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>399635.1949000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>519204.389</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>72924.12670000001</v>
+        <v>72640.75504999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>48740.85829</v>
+        <v>48632.9495</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>96721.54098000001</v>
+        <v>96176.41744</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>97774.51099</v>
+        <v>97146.73613999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>105272.83036</v>
+        <v>104746.96889</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>204109.12929</v>
+        <v>201947.54629</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>258509.67012</v>
+        <v>259399.25489</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>251597.26139</v>
+        <v>246432.93116</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1578890.51282</v>
+        <v>1574577.95572</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>387052.04131</v>
+        <v>381101.7043400001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>299849.75466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>282141.42428</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>348006.877</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3542.67986</v>
+        <v>3541.49863</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6329.75868</v>
+        <v>6329.42139</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5548.34276</v>
+        <v>5539.841759999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>8468.11867</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6975.06795</v>
+        <v>6940.65532</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8984.111989999999</v>
+        <v>9074.32927</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>17196.13173</v>
+        <v>16962.25703</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>31116.71792</v>
+        <v>31101.66701</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>36547.68483000001</v>
+        <v>36472.99738</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>15873.12405</v>
+        <v>14802.26931</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>29583.08277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>29423.95883</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>94925.773</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6089.46032</v>
+        <v>5956.96421</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4757.32161</v>
+        <v>4727.72641</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7127.55507</v>
+        <v>7054.228520000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>8004.56966</v>
+        <v>7913.49096</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7985.37976</v>
+        <v>7934.12296</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>13339.01448</v>
+        <v>12971.07384</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>23016.43999</v>
+        <v>23329.73054</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>17877.68178</v>
+        <v>18209.53118</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>23908.46584</v>
+        <v>23795.04298</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>66573.24146</v>
+        <v>66569.69369</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>88093.35488000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>88069.81179000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>76271.739</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>27813094.49068</v>
+        <v>27564577.50794</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>30098578.54833</v>
+        <v>29880919.13148</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>42272268.70849001</v>
+        <v>41958885.03846</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>55901318.7885</v>
+        <v>55463183.19832</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>53034501.7163</v>
+        <v>52595240.47076</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>60289787.92347</v>
+        <v>60187635.00702</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>63541931.28882</v>
+        <v>64140828.5965</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>62405499.14955001</v>
+        <v>61908494.51368</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>76491220.32383999</v>
+        <v>75485149.03917</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>90827993.10664</v>
+        <v>90407921.21282001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>110022469.01346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>109157844.76351</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>117224731.789</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>23839222.25445</v>
+        <v>23632410.64429</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>29201876.24901</v>
+        <v>28990321.95423</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>43178635.19179</v>
+        <v>42916770.72741999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>56058919.19147</v>
+        <v>55710423.95489</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>52505062.06468</v>
+        <v>52126661.02587</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>61727294.2079</v>
+        <v>61686111.67457999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>60609208.6481</v>
+        <v>61064875.51787</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>53306738.76823</v>
+        <v>52906919.57968</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>75143563.10448001</v>
+        <v>74328030.48407</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>96134499.20781</v>
+        <v>95803493.29766998</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>113100092.8693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>112399563.55738</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>110938476.221</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>183912.06928</v>
@@ -1346,232 +1302,262 @@
         <v>59470.58992</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>271954.42593</v>
+        <v>268591.69472</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>113963.48047</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>627185.91923</v>
+        <v>622346.6566900001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>63759.52249</v>
+        <v>58919.39327</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>797423.56747</v>
+        <v>797443.6900999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>155529.38393</v>
+        <v>142836.73533</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>518243.26312</v>
+        <v>418552.54909</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>168067.10589</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>414892.9765700001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>413375.64195</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>195180.416</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>15078151.73246</v>
+        <v>15061065.80976</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>18028516.57504</v>
+        <v>18008041.27816</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>28577598.28621</v>
+        <v>28560965.81021</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>34742719.59415</v>
+        <v>34725635.04451</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>32829876.90103</v>
+        <v>32757311.99079</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>40013394.99578001</v>
+        <v>40103456.21239</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>35047604.55974</v>
+        <v>35016161.05543</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>23804737.42119</v>
+        <v>23761827.08121</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>37767979.34624</v>
+        <v>37681017.98771999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>58694431.99848001</v>
+        <v>58688000.96336</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>70579855.92019001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>70508387.25075999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>64689786.008</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>8573654.909780001</v>
+        <v>8385236.894269999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>11048100.63982</v>
+        <v>10857138.38539</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14314980.0859</v>
+        <v>14073110.82874</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>21162591.75527</v>
+        <v>20846357.28796</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19029110.98415</v>
+        <v>18730975.61853</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>21522353.58407</v>
+        <v>21398104.57978</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>24663901.16341</v>
+        <v>25151272.98232</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>29252246.38313</v>
+        <v>28912649.54938</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>36665813.41537</v>
+        <v>36057533.63821</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>37117096.52359</v>
+        <v>36793633.15494</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>41813829.22924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>41195700.92723001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>45616967.751</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3503.54293</v>
+        <v>2195.87098</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>65788.44423000001</v>
+        <v>65671.70075999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>14102.39375</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>39644.36158</v>
+        <v>24468.14195</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>18888.26027</v>
+        <v>16026.75986</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>127786.10556</v>
+        <v>125631.48914</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>100279.35748</v>
+        <v>99997.79002</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>94225.57998000001</v>
+        <v>89606.21375999998</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>191527.07975</v>
+        <v>170926.30905</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>154903.57985</v>
+        <v>153792.07348</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>291514.7433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>282099.73744</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>436542.046</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3973872.23623</v>
+        <v>3932166.86365</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>896702.29932</v>
+        <v>890597.1772499999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>-906366.4833</v>
+        <v>-957885.6889599999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>-157600.40297</v>
+        <v>-247240.7565699999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>529439.6516199999</v>
+        <v>468579.44489</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>-1437506.28443</v>
+        <v>-1498476.66756</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2932722.64072</v>
+        <v>3075953.078630001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9098760.38132</v>
+        <v>9001574.934</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1347657.21936</v>
+        <v>1157118.5551</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>-5306506.10117</v>
+        <v>-5395572.08485</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>-3077623.85584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>-3241718.79387</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6286255.568</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>975431.5434499999</v>
+        <v>922650.5850900001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1127452.69453</v>
+        <v>1090610.32896</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1463553.59434</v>
+        <v>1410191.92389</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1601416.01496</v>
+        <v>1503391.9388</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1631364.89341</v>
+        <v>1572631.91885</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1945784.64555</v>
+        <v>1897813.23356</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2114012.907</v>
+        <v>2183612.29125</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2587894.739</v>
+        <v>2517192.36448</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2611780.49969</v>
+        <v>2476138.80494</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2136586.58311</v>
+        <v>2094570.81893</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2751276.03385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2653673.32594</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3541322.403</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>82.76904</v>
@@ -1586,7 +1572,7 @@
         <v>562.2727</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3462.81851</v>
+        <v>3434.14442</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>6911.300429999999</v>
@@ -1598,235 +1584,265 @@
         <v>4155.7992</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>8568.335540000002</v>
+        <v>8564.44464</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>13251.83026</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16204.21462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16090.65722</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17109.521</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>110633.61861</v>
+        <v>107485.04922</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>118325.07058</v>
+        <v>114839.01023</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>204086.70366</v>
+        <v>199865.72978</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>157325.13785</v>
+        <v>154798.53139</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>152658.07651</v>
+        <v>150128.24613</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>304054.88211</v>
+        <v>302831.5107</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>345347.04359</v>
+        <v>318422.67959</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>309917.14894</v>
+        <v>301509.5509</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>417162.34209</v>
+        <v>406286.17654</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>246657.34187</v>
+        <v>246323.67796</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>317724.27486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>313512.75178</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>481775.93</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>864715.1557999999</v>
+        <v>815082.76683</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1009127.62395</v>
+        <v>975771.3187300001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1258818.73629</v>
+        <v>1209678.03972</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1443528.60441</v>
+        <v>1348031.13471</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1475243.99839</v>
+        <v>1419069.5283</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1634818.46301</v>
+        <v>1588070.42243</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1755127.12884</v>
+        <v>1851650.87709</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2273821.79086</v>
+        <v>2211527.01438</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2186049.82206</v>
+        <v>2061288.18376</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1876677.41098</v>
+        <v>1834995.31071</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2417347.54437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2324069.91694</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3042436.952</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2998440.69278</v>
+        <v>3009516.27856</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-230750.39521</v>
+        <v>-200013.15171</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2369920.07764</v>
+        <v>-2368077.61285</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-1759016.41793</v>
+        <v>-1750632.69537</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-1101925.24179</v>
+        <v>-1104052.47396</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-3383290.92998</v>
+        <v>-3396289.90112</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>818709.7337199998</v>
+        <v>892340.7873800003</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6510865.64232</v>
+        <v>6484382.56952</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-1264123.28033</v>
+        <v>-1319020.24984</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-7443092.68428</v>
+        <v>-7490142.903779999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-5828899.88969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-5895392.11981</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2744933.165</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1685109.5059</v>
+        <v>1481207.59668</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1506562.53654</v>
+        <v>1253762.19028</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1666769.34939</v>
+        <v>1399969.57204</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2166042.98071</v>
+        <v>1950681.72139</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2187194.07916</v>
+        <v>1873732.76343</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2505552.69505</v>
+        <v>2204061.10569</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4734154.33413</v>
+        <v>3212612.07228</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4378235.67954</v>
+        <v>3729997.74595</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5222333.047139999</v>
+        <v>4573623.952329999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11829218.80251</v>
+        <v>11439432.25435</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8724638.34317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8616558.942020001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>13389347.162</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>139169.8811</v>
+        <v>43691.19908999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>169892.68122</v>
+        <v>50058.22623</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>142502.7783</v>
+        <v>20693.61684</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>135275.96308</v>
+        <v>16745.57655</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>132841.80394</v>
+        <v>11282.21946</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>112565.94303</v>
+        <v>15638.46803</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>510700.5371</v>
+        <v>14577.01273</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>82460.17590999999</v>
+        <v>34498.58372</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>66202.73655</v>
+        <v>22856.75345</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>13850.17871</v>
+        <v>5971.58625</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>30030.17593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>21323.8469</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6773.495</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>14579.40036</v>
+        <v>2979.04534</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>19993.00252</v>
+        <v>16178.21225</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>18363.10498</v>
+        <v>17581.03908</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>6559.33635</v>
+        <v>5253.160349999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>10901.83635</v>
+        <v>8490.06035</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>14684.71699</v>
+        <v>11732.39699</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>21545.34871</v>
+        <v>21543.62794</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>11803.18391</v>
@@ -1838,55 +1854,65 @@
         <v>76791.81583000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2091625.44821</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2105936.90719</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>148330.087</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>415732.00635</v>
+        <v>402610.4521400001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>325738.0883599999</v>
+        <v>316319.86291</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>172593.95269</v>
+        <v>160836.35177</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>245556.57636</v>
+        <v>240337.7662</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>252385.22727</v>
+        <v>247824.20211</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>240196.52733</v>
+        <v>235030.21048</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>318734.38841</v>
+        <v>314851.45118</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>514014.97014</v>
+        <v>509385.7256</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>665765.2396699999</v>
+        <v>655605.7873499999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>848908.2287999999</v>
+        <v>842863.38539</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1293860.44999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1286353.68663</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1520980.122</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5242.304929999999</v>
+        <v>5094.28858</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>3391.43736</v>
@@ -1895,151 +1921,171 @@
         <v>8324.03839</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>7421.981539999999</v>
+        <v>7168.312750000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>9476.241169999999</v>
+        <v>8752.505559999998</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>13640.76894</v>
+        <v>13630.42106</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5890.65713</v>
+        <v>6055.12162</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>11947.7635</v>
+        <v>12080.42047</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>7438.520759999999</v>
+        <v>7428.458329999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>16249.91598</v>
+        <v>15874.40393</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4998.2188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4163.36238</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>15921.929</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>248874.90582</v>
+        <v>248829.25869</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>46117.48414</v>
+        <v>46025.42112</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>25206.0276</v>
+        <v>25155.30350999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>10621.17381</v>
+        <v>10496.51859</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>15215.40248</v>
+        <v>15214.99448</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>14612.6287</v>
+        <v>14792.3853</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>14598.5261</v>
+        <v>14926.87581</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>70537.86028000001</v>
+        <v>70525.55802000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>18796.46798</v>
+        <v>18250.06562</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>851574.48188</v>
+        <v>851451.2097</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>25144.56855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>25054.81255</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>24156.156</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>7836.290649999999</v>
+        <v>7765.50121</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3681.56383</v>
+        <v>3432.28522</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2699.69895</v>
+        <v>2666.54188</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>13114.38515</v>
+        <v>13097.02186</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>19640.52089</v>
+        <v>16672.54744</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6864.53601</v>
+        <v>6675.6117</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>13217.73465</v>
+        <v>11280.18809</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13500.55642</v>
+        <v>13291.89769</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9039.154270000001</v>
+        <v>8998.291810000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>3792.5756</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6019.03199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3233.68511</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>68728.773</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>635637.60522</v>
+        <v>561945.7329900002</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>689605.77086</v>
+        <v>583505.47823</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>978514.37153</v>
+        <v>853995.72955</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>971389.7588300001</v>
+        <v>893763.2730599999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1289093.51756</v>
+        <v>1118903.50383</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1536365.16366</v>
+        <v>1345864.37264</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3163573.61581</v>
+        <v>2158464.51112</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2659861.77506</v>
+        <v>2085691.57327</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3354491.91903</v>
+        <v>2782891.55824</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9402110.938349998</v>
+        <v>9028798.791600002</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4499100.53691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4385628.909899999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10273536.142</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>64.70405000000001</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>55.37869</v>
+        <v>45.15457</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>51.08558</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>138.754</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>3038.07394</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>217972.40742</v>
+        <v>208227.41459</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>243785.09882</v>
+        <v>230493.85753</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>318146.04188</v>
+        <v>310297.61595</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>772637.66943</v>
+        <v>760353.9558699999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>457616.55663</v>
+        <v>446569.7573300001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>563528.95776</v>
+        <v>557614.01098</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>685890.1062200001</v>
+        <v>670913.28379</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1012717.86434</v>
+        <v>991329.27329</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1079431.16174</v>
+        <v>1056425.19039</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>615826.97172</v>
+        <v>613774.79041</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>773808.82721</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>784812.6457799999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1330781.704</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1030936.76444</v>
+        <v>959146.9325900001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>909261.80655</v>
+        <v>796082.0366900001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1426505.06693</v>
+        <v>1276811.87637</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1325259.4834</v>
+        <v>1230475.63287</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1516151.64398</v>
+        <v>1308194.18957</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1495233.58259</v>
+        <v>1315789.86046</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3958028.36782</v>
+        <v>2929535.63178</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3517078.63776</v>
+        <v>2584621.76141</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6188592.370360001</v>
+        <v>5352863.09987</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10146743.80501</v>
+        <v>9671443.865950001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5115232.97808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4967183.596229999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9523450.094000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5885.176899999999</v>
+        <v>5551.29674</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6695.91661</v>
+        <v>6366.37467</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7107.23124</v>
+        <v>7105.93624</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>8384.661529999999</v>
+        <v>8332.17748</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>12975.33027</v>
+        <v>7356.688230000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10855.4726</v>
+        <v>10696.1071</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10177.1979</v>
+        <v>13223.93289</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16290.75049</v>
+        <v>15915.13755</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>21369.65142</v>
+        <v>21106.75992</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>23460.95364</v>
+        <v>23114.43778</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>33475.71057</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>33454.90981999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>30819.682</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>184270.18866</v>
+        <v>183906.92253</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>41788.34648000001</v>
+        <v>41730.06847999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>149710.18913</v>
+        <v>149573.22147</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>48899.74730999999</v>
+        <v>47889.3491</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>32803.22363</v>
+        <v>32682.04165</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>57630.47939000001</v>
+        <v>57824.85584</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>919633.48681</v>
+        <v>916144.76219</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>245032.48575</v>
+        <v>244577.83866</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2128646.30608</v>
+        <v>2113963.26299</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1125807.31483</v>
+        <v>1114690.26463</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>526819.9850099999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>522564.38586</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>949503.442</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4.31812</v>
@@ -2288,19 +2364,19 @@
         <v>161.73084</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>5722.50027</v>
+        <v>14.30027</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>24695.07397</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>97.81951000000001</v>
+        <v>63.92198</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>970.08233</v>
+        <v>28.18483</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>9300.907370000001</v>
+        <v>8687.34253</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>9.050000000000001</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>3462.74127</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>18408.285</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>792574.1045599999</v>
+        <v>723513.7210199999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>806870.79969</v>
+        <v>695874.2113300001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1198156.11776</v>
+        <v>1059078.76256</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>782060.53325</v>
+        <v>705013.02709</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1377973.99352</v>
+        <v>1195186.80808</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1288076.4976</v>
+        <v>1109443.16862</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2865096.89496</v>
+        <v>1866326.26454</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3093800.49458</v>
+        <v>2181171.92784</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3861084.85702</v>
+        <v>3057523.35901</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8846296.07161</v>
+        <v>8382809.34829</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4411413.32095</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4268470.58753</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8045908.638</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>812.10137</v>
@@ -2366,7 +2452,7 @@
         <v>3688.57004</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>10.23687</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>94.62389999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>64.49218</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1106.882</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47390.87483</v>
+        <v>45358.57281000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>51647.57199</v>
+        <v>49852.21043</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>71459.02409000001</v>
+        <v>60981.45139</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>482064.24043</v>
+        <v>465390.77832</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>86666.35942000001</v>
+        <v>72954.35134000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>113881.43513</v>
+        <v>113036.03103</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>163003.4944</v>
+        <v>133757.27594</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>157439.04856</v>
+        <v>139382.89648</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>167413.56014</v>
+        <v>150805.28709</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>151095.38181</v>
+        <v>150745.73213</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>139996.7281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>139166.47957</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>477703.165</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>467519.31634</v>
+        <v>454916.23159</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>347974.55717</v>
+        <v>337466.32912</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>625567.3107200001</v>
+        <v>604267.8934000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>467485.96102</v>
+        <v>441269.5411</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>942220.0085600001</v>
+        <v>915554.47424</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>701282.7285900001</v>
+        <v>678468.0019</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1277441.22592</v>
+        <v>1214411.4287</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1180641.67351</v>
+        <v>1094904.57072</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1134977.23567</v>
+        <v>1020339.67314</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2306642.99022</v>
+        <v>2241106.83014</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3744491.63646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3667088.58438</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5669485.532</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>353252.78424</v>
+        <v>340961.29447</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>219907.79788</v>
+        <v>212324.55029</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>322109.9297100001</v>
+        <v>304672.82896</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>375756.81962</v>
+        <v>353431.82179</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>521876.1083</v>
+        <v>498202.13075</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>506494.95123</v>
+        <v>488872.55807</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>728952.28147</v>
+        <v>692869.8995299999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>866777.351</v>
+        <v>801491.94677</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>973349.4905799999</v>
+        <v>882645.3897199999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1434063.23889</v>
+        <v>1372735.43491</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1463213.42174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1390336.32331</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1377334.967</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>114266.5321</v>
+        <v>113954.93712</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>128066.75929</v>
+        <v>125141.77883</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>303457.3810100001</v>
+        <v>299595.06444</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>91729.14140000001</v>
+        <v>87837.71931</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>420343.90026</v>
+        <v>417352.34349</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>194787.77736</v>
+        <v>189595.44383</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>548488.9444500001</v>
+        <v>521541.5291699999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>313864.32251</v>
+        <v>293412.62395</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>161627.74509</v>
+        <v>137694.28342</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>872579.75133</v>
+        <v>868371.39523</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2281278.21472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2276752.26107</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4292150.565</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3185094.1179</v>
+        <v>3076660.71106</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>18575.77761000002</v>
+        <v>-79799.32724000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2755223.1059</v>
+        <v>-2849187.81058</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-1385718.88164</v>
+        <v>-1471696.14795</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1373102.81517</v>
+        <v>-1454068.37434</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3074254.54611</v>
+        <v>-3186486.65779</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>317394.4741100001</v>
+        <v>-38994.20082000017</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6191381.010589999</v>
+        <v>6534853.98334</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3365359.83922</v>
+        <v>-3118599.070520001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-8067260.677</v>
+        <v>-7963261.345520001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-5963986.161060001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-5913105.358399999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>941344.701</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2118139.32005</v>
+        <v>2110802.506430001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1509983.78559</v>
+        <v>1505155.12811</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1183062.58523</v>
+        <v>1162695.5943</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>796739.44153</v>
+        <v>766601.16282</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2639391.55346</v>
+        <v>2588747.45128</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1646030.86368</v>
+        <v>1629929.12742</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1205618.20594</v>
+        <v>1103283.93066</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2221553.19295</v>
+        <v>2111164.46497</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7250798.007069999</v>
+        <v>7143335.059959999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5377934.73825</v>
+        <v>5281400.433180001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>688316.98737</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>623986.3181199998</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1206943.187</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>126997.88862</v>
+        <v>126224.87062</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>225435.90946</v>
+        <v>224827.10842</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>475272.75031</v>
+        <v>475271.75241</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>116210.42379</v>
+        <v>114768.85704</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>187569.56239</v>
+        <v>186189.60552</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>215181.62649</v>
+        <v>215003.37698</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>286769.30524</v>
+        <v>286334.57021</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>267859.91045</v>
+        <v>267842.9328</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>368747.35045</v>
+        <v>367530.63072</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4535993.060349999</v>
+        <v>4535972.66189</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>57471.26199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>57469.56829</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>69700.186</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1991141.43143</v>
+        <v>1984577.63581</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1284547.87613</v>
+        <v>1280328.01969</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>707789.8349199999</v>
+        <v>687423.84189</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>680529.01774</v>
+        <v>651832.3057799999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2451821.99107</v>
+        <v>2402557.84576</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1430849.23719</v>
+        <v>1414925.75044</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>918848.9007</v>
+        <v>816949.36045</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1953693.2825</v>
+        <v>1843321.53217</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6882050.65662</v>
+        <v>6775804.429239999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>841941.6779</v>
+        <v>745427.7712899999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>630845.7253799998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>566516.7498299999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1137243.001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1147526.33466</v>
+        <v>1142073.25599</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1825298.03284</v>
+        <v>1823294.26323</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>589619.19251</v>
+        <v>572220.51033</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>550671.02889</v>
+        <v>542886.8887100001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>747092.5788399999</v>
+        <v>731738.7805799999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>441690.47725</v>
+        <v>438060.31162</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2169590.16316</v>
+        <v>2148961.99623</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1818834.52119</v>
+        <v>1787741.69484</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>670461.8759400001</v>
+        <v>636274.5118000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>550037.75858</v>
+        <v>469722.01002</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>625863.41479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>605553.7337699999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2019086.627</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>57385.41763</v>
+        <v>56800.68679</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>56854.03286</v>
@@ -2792,226 +2933,254 @@
         <v>69851.30179000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>78860.44378</v>
+        <v>78720.80512</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>114625.34372</v>
+        <v>110681.2945</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>110414.71469</v>
+        <v>109829.42472</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>110239.7195</v>
+        <v>107529.07592</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>132219.6527</v>
+        <v>131036.83137</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>128305.42651</v>
+        <v>125646.94138</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>149434.31104</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>196423.94271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>185891.01988</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>40006.584</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>109149.91016</v>
+        <v>108983.27902</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1425563.26452</v>
+        <v>1425114.53766</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>192784.51706</v>
+        <v>189305.62547</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>167871.40293</v>
+        <v>167720.56844</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>373903.7532799999</v>
+        <v>373610.0471099999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>186798.54203</v>
+        <v>185488.1958</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1222717.81691</v>
+        <v>1224408.72679</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>345740.48962</v>
+        <v>345685.71863</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>179953.12599</v>
+        <v>175212.48829</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>69393.83328000001</v>
+        <v>67523.14932000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>100410.97587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>98612.4926</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>350374.185</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>980991.00687</v>
+        <v>976289.2901799999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>342880.7354600001</v>
+        <v>341325.69271</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>326983.37366</v>
+        <v>313063.58307</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>303939.18218</v>
+        <v>296445.5151500001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>258563.48184</v>
+        <v>247447.43897</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>144477.22053</v>
+        <v>142742.6911</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>836632.6267500001</v>
+        <v>817024.1935200001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1340874.37887</v>
+        <v>1311019.14484</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>362203.32344</v>
+        <v>335415.08213</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>331209.61426</v>
+        <v>252764.54966</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>329028.49621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>321050.22129</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1628705.858</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4155707.10329</v>
+        <v>4045389.9615</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-296738.46964</v>
+        <v>-397938.4623599999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2161779.71318</v>
+        <v>-2258712.72661</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1139650.469</v>
+        <v>-1247981.87384</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>519196.1594500003</v>
+        <v>402940.2963600002</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1869914.15968</v>
+        <v>-1994617.84199</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-646577.4831099999</v>
+        <v>-1084672.26639</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6594099.68235</v>
+        <v>6858276.753470002</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3214976.29191</v>
+        <v>3388461.47764</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3239363.69733</v>
+        <v>-3151582.92236</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-5901532.588479999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-5894672.77405</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>129201.261</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>44106.01199</v>
+        <v>39146.73859</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>46775.54869</v>
+        <v>42751.56508000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>55820.12187</v>
+        <v>51324.43446</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>79247.4731</v>
+        <v>72674.51583</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>65509.85477999999</v>
+        <v>57675.99609</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>76057.80287</v>
+        <v>71141.59742000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>103232.10644</v>
+        <v>106406.88861</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>179712.26814</v>
+        <v>146679.07892</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>164618.70378</v>
+        <v>149116.08817</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>193626.05705</v>
+        <v>189068.38249</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>298982.29902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>306784.28107</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>415898.608</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4111601.0913</v>
+        <v>4006243.22291</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-343514.0183299999</v>
+        <v>-440690.02744</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2217599.83505</v>
+        <v>-2310037.16107</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1218897.9421</v>
+        <v>-1320656.38967</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>453686.3046700001</v>
+        <v>345264.3002700002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1945971.96255</v>
+        <v>-2065759.43941</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-749809.5895499997</v>
+        <v>-1191079.155</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6414387.41421</v>
+        <v>6711597.674550001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3050357.58813</v>
+        <v>3239345.38947</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3432989.75438</v>
+        <v>-3340651.30485</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-6200514.8875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-6201457.05512</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-286697.347</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>98</v>
+      </c>
+      <c r="D59" s="35" t="n">
         <v>122</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>146</v>
-      </c>
       <c r="E59" s="35" t="n">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>